--- a/facebook_posts.xlsx
+++ b/facebook_posts.xlsx
@@ -25,27 +25,39 @@
 See Translation</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Mehenil/posts/pfbid021sDb3pimHyXp7WoGpcgJjsepRNgW2pkfSjYHyDE6aaQ1vNvfFXtV2bwadyVCFGMRl?comment_id=1118738286489974&amp;__cft__[0]=AZVzu_nh2JpxxF-eDUfcFPcv2cZIvrYCjzah0FcaSqRuZLWfdyiCTz34xZoH-lDOlRYkahv3oyxb5tCTJmCaMBpl1oL9cqrinxN1-V6pY2I2eb0vA1q6rRv8DBobBYAz8k9OlO58Fo2gRSt6qSjHzKhhT41cBAIAYu5qFBFqcfXEYEQqTT9--RPNj42eGkB6CMrrxSgUJzGr99FCuNJ0x0yY&amp;__tn__=R]-R</t>
+    <t>https://www.facebook.com/Mehenil/posts/pfbid021sDb3pimHyXp7WoGpcgJjsepRNgW2pkfSjYHyDE6aaQ1vNvfFXtV2bwadyVCFGMRl?comment_id=1118738286489974&amp;__cft__[0]=AZUCUiFW6ynN4gYMmVqEW26eLiLe7ACSGtf34EGzXiYV8rWat_1J2EnF23mxjRc9F59WrwFL3kjAolx8iqbp8tD48pG_ciXvS4OUxbCROKP77vtf7rcf3gEJQUNm6QlhPaO0_FmZn0g96xJjLD8XKylMZ0wLx9Tnn0DfyFqc6NIYmtoZda7XkxW8YFu7O17iSa7ODYWGgRRv3UVuPkDgk36P&amp;__tn__=R]-R</t>
   </si>
   <si>
     <t xml:space="preserve">· 
 শেখ মুজিব অফিসিয়ালি সকল রাজনৈতিক দল নিষিদ্ধ করে বাকশাল কায়েমের মাধ্যমে বাংলাদেশে একনায়কতন্ত্র প্রতিষ্ঠা করেছিলো, হাসিনাও বাপের পথেই হেটেছে!
 আপনাদের কি ২০০১ থেকে ২০০৫ সালের কথা মনে আছে? সেই সময় আপনারা বিএনপির উপর অতিষ্ট হয়ে আওয়ামী লীগের হাতে ক্ষমতা তুলে দিয়েছিলেন।
-আজকে ১৫ বছর পর সেই আওয়ামী লীগের উপর অতিষ্ঠ হয়ে আবার বিএনপির কাছেই ক্ষমতা হস্তান্তর করবেন। তাহলে বলাই যায় বিএনপির পরে আবার আওয়ামী লীগকেই আপনারা ক্ষমতায় বসাবেন।… See more
-See Translation</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Mehenil/posts/pfbid0cECBtJ8zhdQ53Rwm75i4ucQpLqUEunjyY53PK6178ZAS6xgAP7MHE6nvHoqd59Esl?comment_id=1195764824875743&amp;__cft__[0]=AZXGdu59qdC9i9QpLsH4t0W8cdUUqQeI3RkzlMFeYWzvKsQVrwo5WQnX4R8jQDiE1T5HhqqVybrI21fzQPnR23ehOedasIHf-K366ZT_uKa_98qV1DWFvYWhV_J1OdjWnYHGvDVPpp1skQ5NpKmvGR8zrdDCg1KuEaIom3i2k3iimj4D3TFHEJ-Io4pcKcskeY81DiHvyv_MeaI0wHaT66OH&amp;__tn__=R]-R</t>
+আজকে ১৫ বছর পর সেই আওয়ামী লীগের উপর অতিষ্ঠ হয়ে আবার বিএনপির কাছেই ক্ষমতা হস্তান্তর করবেন। তাহলে বলাই যায় বিএনপির পরে আবার আওয়ামী লীগকেই আপনারা ক্ষমতায় বসাবেন।
+এ কথা বলার মূল কারণ হচ্ছে স্বৈরতন্ত্র, খুনাখুনি, লুটতরাজ, দুর্ভিক্ষের অভূতপূর্ব মুজিবের কুকর্মের আমলনামা সত্ত্বেও এই দল ২১ বছর পর বাংলাদেশে ক্ষমতায় বসেছে। তার মানে আপনারা আবার আওয়ামী লীগকে ক্ষমতায় আনবেন সেটা সময়ের অপেক্ষা মাত্র।
+আমাদের দেশটা আগে সংস্কার করা উচিত। দেশের সংবিধান পরিবর্তন করা উচিৎ। এর জন্য ড. মুহাম্মদ ইউনুস স্যারের নেতৃত্বে নুন্যতম ৫ বছর দেশ পরিচালনা করা প্রয়োজন। ক্ষমতা লোভী দুর্নীতিবাজদের বিরুদ্ধে আমাদের সবাইকে একসাথে সোচ্চার হতে হবে। বিম্পি নির্বাচন চাচ্ছে। দেশে দ্রুত কোন নির্বাচন হতে দেওয়া যাবে না। দেশে তরুণ প্রজন্মের একটি রাজনৈতিক দল দরকার যারা শুধুমাত্র দেশ এবং দেশের জনগণের জন্য কাজ করবে
+See Translation</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Mehenil/posts/pfbid02g5du4y4pZ4rHz6P7WvueHBjd34hQWP91PZioZFhfZLM3GmVCAYzmpiaLNzEPqDeJl?comment_id=1195764824875743&amp;__cft__[0]=AZVK-eGOpsfRuWXl6guR4RkdyACUrhnMo0S7WVp8pKfKTHm6iGRo6cF_o1ObVznJFnAp4uD0C5YbrL1VUut1gPSdOkL091wnF3UVgWoQsZkuSDRI1cl5BRjFCtM2OwBUms-RDW7umpY6S_rGPDHQXhsF8T_-cU0z-iQHKBZ7kfb7T3ijO6bfMvk_G5fXujIxgRROgEMNIMtRpsGh5OY5z4G_&amp;__tn__=R]-R</t>
   </si>
   <si>
     <t xml:space="preserve">· 
 বাংলাদেশের ৬০% জামাত শিবির নোয়াখালী, ২০% চট্টগ্রাম, ১০% রাজশাহী, বাকি ১০% অন্যান্য জেলা। 
 আমাদের বাড়ি রাবির সাথেই। আমার চাচাতো ভাই রাবিতে ছাত্রশিবির করতো, সেই হিসাবে শিবির খুব কাছ থেকে দেখেছি। ২০০৫ সালে যখন আমি তৃতীয় শ্রেনীর ছাত্রী তখন প্রতিদিন স্কুল যাবার সময় রাস্তায় রক্ত পড়ে থাকতে দেখতাম। আম্মুকে জিজ্ঞেস করলে বলতো শিবির মানুষের রগ কাটে!
-এই কথাটা প্রচলিত ছিলো আরও আগে থেকে। শিবির নাম শুনলেই সবাই এটা বলতো। মজার ব্যাপার হচ্ছে, শিবির কারো রগ কেটে দিতো না, ওইগুলা ছাত্রলীগ আর ছা… See more
-See Translation</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Mehenil/posts/pfbid0yS1TeYD553bhzJVUd1vURzirX7hLWtaZreYEx496ZhVf4b4k3318Yj2repbd7rEZl?comment_id=862872849279294&amp;__cft__[0]=AZWZw2scJsb-2O1SjbJM_nff7tIerHpRxkm9UBPlnjCTEiZLrhMbzJOkmFBZ3Z_-S2v2-oz-r3E9kJaAHpQL2dRgm7LDAvto4gvYoORnQhm1ht8frNYHHabuc3arZ4Jf-RS_9UTBwYrjakQE_UojcgsvrW0DCNw6D5WcMF8zwLpFkFK7rrSrP0al3tdyPc2D0plrZjw_eair9SBjQN6OMnHt&amp;__tn__=R]-R</t>
+এই কথাটা প্রচলিত ছিলো আরও আগে থেকে। শিবির নাম শুনলেই সবাই এটা বলতো। মজার ব্যাপার হচ্ছে, শিবির কারো রগ কেটে দিতো না, ওইগুলা ছাত্রলীগ আর ছাত্রদলের মারামারিতে রক্ত ঝড়তো। যখন আমি বড় হলাম, রাজশাহী থেকে ঢাকা আসলাম তখন বুঝলাম শিবির অবশ্যই আক্রমনাত্মক। কিন্তু সেটা শুধুই ছাত্রলীগের বিরুদ্ধে অন্যায়ের বিরুদ্ধে। সাধারণ ছাত্রছাত্রীদের জন্য শিবির কখনোই ভয়ানক ছিল না।
+যে কেউ চাইলেই শিবির হতে পারেনা। তারা যাকে তাকে দলে নেয়না। আপনি আমি চাইলেই ছাত্রলীগ হতে পারবো, ছাত্রদল হতে পারবো কিন্তু ছাত্রশিবির হতে পারবো না। শিবির করতে যোগ্যতা লাগে, হতে হয় তুখোড় মেধাবী,যেমন বুয়েটের ছাত্ররা শিবির করে।শিবিরদের নিজস্ব সংবিধান এবং প্রচুর নিয়ম কানুন আছে সেগুলোর ভিতর দিয়ে যেতে হয়। ফরম ফিলাপ করার পর তারা যদি আপনাকে যোগ্য মনে করে শুধুমাত্র তখনই আপনি শিবিরে যোগ দিতে পারবেন। 
+শিবির হওয়ার প্রথম শর্ত মুসলিম হতে হবে। মুসলিম ছাত্র ব্যতীত কেউ ছাত্রশিবিরের সদস্য হতে পারেনা। তবে যে কেউ তাদের সমর্থক হতে পারে। শিবির চেনার উপায় হচ্ছে তাদের আচরণ খুবই নম্র এবং ভদ্র। তারা ভীষণ অরগানাইজড। তারা কথার বরখেলাপ করেনা। তারা কারো সাথে হ্যান্ডশেক শেষে বুকে হাত রাখে।
+ছাত্রলীগ বা ছাত্রদল যখন কাউকে মারতে চায় তখন তার আশেপাশেও দুই চারশো মানুষ প্রাণ হারায়, কিন্তু শিবির যখন কাউকে মারতে চায় তখন নির্দিষ্ট ওই একজনই প্রান হারায়। তারা কারো সম্পর্কে সম্পুর্ন তথ্য না জেনে তার বিরুদ্ধে একশ্যান নেয় না। তারা অনুমানের উপর চলে না। এটাই হচ্ছে শিবিরের সাথে অন্যদের তফাৎ!
+শিবির রগ কাটে এটা আসলে একটা প্রপাগাণ্ডা। আওয়ামী সুশীলরা এই ইম্প্রেশনটা সারাদেশে তৈরী করেছে। মানুষ শিবির শুনলেই যেন ভাবে এরা খারাপ, এরা রগ কাটে। অথচ ২০০৫ থেকে ২০২৪ এই দীর্ঘ ১৯ বছরে ছাত্রলীগের চেয়ে বেশি আর কাউকেই রগ কাটতে দেখিনি, কিংবা শুনিওনি। 
+জামাতের বড় বড় সব নেতারা নোয়াখালীর। নোয়াখাইল্লা সবাই জামাত শিবির এইটা সত্য কিন্তু যখন ভোট হয় এরা ভোট দেয় ধানের শীষে। এই সাইন্সটা আজ অব্দি আমি বুঝিনাই। এদিকে শিবিরের ক্যাথোলিক, অর্থডক্স সহ বিভিন্ন শাখা রয়েছে। এরা খুবই ওয়েল ট্রেইন্ড, কাউকে বুঝতে দেয়না। এত বেশি ওয়েল ট্রেইন্ড যে জামায়াতের আমির ডাক্তার শফিকুর রহমানও তাদের সম্পর্কে জানে না। বলা যায় শফিকুর রহমান আইওয়াশ। জামাত যারা চালায় তারা কেউ সামনে আসেনা। তাদের পরিচয় জামাতিরাও জানেনা।
+শিবির কিংবা ছাত্রলীগ ছাত্রদল কারো প্রতি আমার আলাদা কোন ভালোবাসা নেই। কোন মুগ্ধতাও নেই। আমি স্রেফ আমার অভিজ্ঞতা থেকে শিবির সম্পর্কে বললাম। কারন জেঞ্জি আর আলফারা অনেকেই মনে করে শিবির মানেই রগ কাটে, শিবির মানেই ব্লেড নিয়ে ঘুরে সেই ব্যাপারটাই খোলাশা করতে এই পোস্ট
+মেহেনীল তাসনিম জয়া 
+খিলক্ষেত, ঢাকা
+৩১ অগাস্ট ২০২৪
+বিকাল ৪:৩৪
+See Translation</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Mehenil/posts/pfbid033HTAqD8tveyBBZPVwdyc3T6YDLeEJygqX4gevfmVm2NGw7GKpmZcFgmn73WRvcFNl?comment_id=862872849279294&amp;__cft__[0]=AZVUuFUmxuqGHwhbgdw9I8PUiwgjZjGOq0iu4q6P2u2tHPlv1PDIKnDrdqa-WNn2ol688ib-aVFaPn2WYWtJnRXBggIGm5OEK9m8dLHfyVGTzgUh06TQRoEAzdCl8R4YOH4JLpiNrFSW2ZALt1PS9pV5LQf1tr3SwVESrNzmLHDQYjHUhUj8qWzSEvz-5whd-1H-r8nylCsAsd1h8-jesm3y&amp;__tn__=R]-R</t>
   </si>
   <si>
     <t xml:space="preserve">· 
@@ -54,28 +66,21 @@
 See Translation</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Mehenil/posts/pfbid02CdMSLqPf5svoHY3vzYmf5n2qmyP7H2Uou6kaFVsGFpQHGQ4CMEMSQTruFceAGjj7l?comment_id=1580622532665552&amp;__cft__[0]=AZX05_wIHBoQpnJCQaUvgxtrNFDbQ4l5RXzhUWHdbl-tVOD7CDL_Lt_bk2H5MYJgXuE1kfLYyE4q3BNyy23pXunQ9nZJUfc993gPuYJCEN7QpxMX2EiS3wI4Nlty3G7xDfYllWUj3Ys3p6MYO4g8wFpuKdlYLM7Dxwzlm3RztsxzwO_bYx5kj6d3Yz9UlZNFIDEZesRdtmxbAPMPT9csuL3-&amp;__tn__=R]-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">· 
-একটা মহিলা ৪ টা বিয়ে করসে! একটা করে বিয়ে করে কাবিনের টাকা নেয় স্বামীর অর্ধেক সম্পত্তি নেয় তারপর তালাক দিয়ে আরেকটা বিয়ে করে। আবার সেম কাহিনী করে পরের বিয়েতে যায়, এভাবেই কাবিন ব্যবসা করে।
-এক লোক ভালোবেসে এক বাচ্চা সহ তাকে বিয়ে করে ধর্মীয় পথে আনার চেষ্টা করলো। তাকে ভালো করার চেষ্টা করলো। ২ বছর সংসার করার পর ওই বেডি আবার পরোকিয়া করলো। স্বামী মাফ করে সুযোগ দিলো। এরপর আবার পরকিয়া করলো, বাচ্চাকে শিখায় দিলো পরোকিয়া প্রেমিককে বাপ ডাকতে।
-চার নাম্বার স্বামীর টাকা পয়সা নিয়ে পাচ নাম্… See more
-See Translation</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Mehenil/posts/pfbid02wpxhTsv2WYt1aoLVhe5yz89gDc5VCKAswJVExMTvAGtT1oLYPcfQDypGii6PCJiml?comment_id=1185907325958547&amp;__cft__[0]=AZXOYGDJfxpgtEPf-d6sDifuLq1KNMc5NRK7xvHrp_Ag_Xv1g3SavEckX8rmM8eTAueKCVgWCdxf4dqBgdIHhp3G47GmHv9jotgwbqLqN0Bz4YiLLLeT35vF9MGSEOKQMV-9C-FFeqcRxEKiAXVqPjFwhBgLYQ69jHjNMykUAg29TXtlPPQd0K3nBWhlhu8A-rLVRe-4uaMxjTHv4HivRfvy&amp;__tn__=R]-R</t>
+    <t>https://www.facebook.com/Mehenil/posts/pfbid02CdMSLqPf5svoHY3vzYmf5n2qmyP7H2Uou6kaFVsGFpQHGQ4CMEMSQTruFceAGjj7l?comment_id=1580622532665552&amp;__cft__[0]=AZWYS_Z3ud7xGwvaaUAKZm9j0LAtOF21bv15x3KXdn7WO2Oo1zFp2gAOEDWPUAaXSdq6hNuP64D4Wy9K9X0i32_T1PVr3L5eeVIZPa6-iDPHEprsNS3XMFk1SP_jMxooO6e4OEEgY5aAF0-A4vamRTLJ6mAPJSNZmB95QA2HaYGIIxd9tKOYdaF0N9yK9pPYZVtiQIbwxSxhWbCaHrCm6yPk&amp;__tn__=R]-R</t>
   </si>
   <si>
     <t xml:space="preserve">· 
 ট্রিট পেয়ে আমার চ্যাম্প গান গাচ্ছে-
 ১৬ কোটি মানুষের একটাই ডিসিশন
 ডুবসে নৌকা, জিতসে জনগণ!
-১৬ কোটি মানুষের একটাই ডিসিশন … See more
-See Translation</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Mehenil/posts/pfbid029pCAS3pN6v8ku5BbA5tFiYbUTxwYQivv2vKFZQUNruB64s8n3Mzy7jLnHpB8U4DWl?comment_id=1155085332248813&amp;__cft__[0]=AZVIrBVenpbj1FRS9NXhyeknblqFcGcdZEC8LAzlePvklk1nwPfYjlGQrHyDCoaIBg1sfu2X-_6ehLrnPeEQk9su7qLUvsA3GDpWFSfXOxyXfOVzhJK6dEW04BqOAnFxR3IQUHeEH0P8kNetyRDCbx2EzvkMBuLdRqiX8p9dITw2MG55OVMHZVtORjMgYcw4afuDFCgfzTAghaUgztYXv_80&amp;__tn__=R]-R</t>
+১৬ কোটি মানুষের একটাই ডিসিশন 
+ভাগছে নৌকা, নাই কোন টেনশন 
+জয় বাংলা, স্টুডেন্টের সালাম নিন 
+জয় বাংলা, স্টুডেন্ট মার্কায় ভোট দিন
+See Translation</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Mehenil/posts/pfbid029pCAS3pN6v8ku5BbA5tFiYbUTxwYQivv2vKFZQUNruB64s8n3Mzy7jLnHpB8U4DWl?comment_id=1155085332248813&amp;__cft__[0]=AZVQps61Riz09YY-zlEvKTM1A4ePjwIcXkpQxFGBE4u-M1wG-S95zSq9RFGquXdFHiYL31f5YhDTzy-9n_k-qdTDUBCovzeXfPriPYz94_X2DvLFP6-fjfavzB-1CCmiIQc14ImBE2vIIjHfk3hTygpURIJOgj-YDiFkmmKK2v44wWIMcRrYphALZPLMqHr6zPUV379LJurHoFAvbwR8ILNF&amp;__tn__=R]-R</t>
   </si>
   <si>
     <t xml:space="preserve">· 
@@ -85,7 +90,7 @@
 See Translation</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Mehenil/posts/pfbid0g5Cba9JnS6kDCLiQPAH7zmgz8m826ozhQPERRBCgH6rENH8UtVdSmPqhHXWPGbTJl?comment_id=793957172649114&amp;__cft__[0]=AZWk5BF-wqGY2YjB8PiPF9G3kRpiZsg_aOJ93xSRzZ8MA195k_YSv-SHIGWUTezL_7eoQ0ARzM0p10XsRiRfDnvBO-B7i74hiT6_KOu4_N7nSOq-DNJHg6vVyTtO7KBJly3DVpw5og6MQEd3yUDpy_bAkEtQWbXfyEZe0dluvGDEKU7w19i2-Hu27VpeC63WLITljCOHZgWQAybo2hkKHWGJ&amp;__tn__=R]-R</t>
+    <t>https://www.facebook.com/Mehenil/posts/pfbid02jveJkpEcHUNXdvCYqHcLjq5D9rRpirY7cK8fUarvEn1zcy8n8Kz97VLjXatjHpTrl?comment_id=793957172649114&amp;__cft__[0]=AZU0kRzjZiN4tRr62fxo3c5PmxOUl2LQ_zyBcic0nmjqY8CMW8pk8QOpqEACm9MtdHWzuPH77ApuB0RGkodfrqiKHc0IVDSSkxph0m8ny37iL3AGBROTxxXBWyzUiSD4utBj00kvxNm2SIcO7W09H8ueZvnvDYjb0imYEwkjKyFLYDFlqKzK4M2btX1rRs39D-DNhi3Y9z_RFQ3FZxZr9_gr&amp;__tn__=R]-R</t>
   </si>
   <si>
     <t xml:space="preserve">· 
@@ -94,7 +99,7 @@
 See Translation</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Mehenil/posts/pfbid0rjDks3MQ5QTm33U7sMpAGeVhNMDnY1TWz12w13WajZvesYRumuXcpqvqbDyXKDGDl?comment_id=1224646141904887&amp;__cft__[0]=AZV-nLy_CB2VtFsCcz8b45LiN3bWfrEWLbRspS-9SG_1oNITn7MuD4nfZgwgFsGJGJgkBlpA6q2eoaqmCcg_6TfTEL64HAc9ztCgoO3nqizKx2anUH2-A0Z83hlBnwCGyMgPmdXs7EcqgHk4SSGCuI0iAXHnuzOH0LbMEYMJI0PP2jKXG0GxAy7vs0rs8z_88nM2GUNrf6le7W84kUsDstcY&amp;__tn__=R]-R</t>
+    <t>https://www.facebook.com/Mehenil/posts/pfbid0rjDks3MQ5QTm33U7sMpAGeVhNMDnY1TWz12w13WajZvesYRumuXcpqvqbDyXKDGDl?comment_id=1224646141904887&amp;__cft__[0]=AZWur04ZgvgX3pLG1sLgDb-2zzqKKIbHW3xN6oYQC6ceYWlSLf3BCccTnOv-WuIplLgsmLyEdh6ZcfqdA1F-b7m80z89CCDnmXLSnUBYiFFUsUcPFkUAbl9z8iMtsoSvPM95svpm2KgT3W9MFGJWXQEGbSr_8qk3YeCIb1txiJTQaf5XxEwSK08NJEeC6ggLkdFlQX3gjZiyhGL4UyHGpOQQ&amp;__tn__=R]-R</t>
   </si>
   <si>
     <t xml:space="preserve">· 
@@ -103,18 +108,30 @@
 +3</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Mehenil/posts/pfbid07rchDjS1sQagvLzbuyvu9nfZfvhy6U1Rx1x1v8jE6d283cMptPQkBZ9MooLKb8UNl?comment_id=1532678067639585&amp;__cft__[0]=AZVkQ7OwLJ-W7HZesBEyb22lqQv_JlTFF6-kWTqMlOKqQHZMPegJN60Bg3J792NFtHYYPxua88nqbAbOMvcrhGpwaM_ct4ReAxYGH463Z8WFdQMWWy_Rx-szKiJVay4fCU9OlbLjp6QhlrR2wXk9l1O_1y1LbQyI_vsZN02rqYvYxwYtOyXULTnJLJJN0lhioKNjFHm3516-SOkLh06FUco0&amp;__tn__=R]-R</t>
+    <t>https://www.facebook.com/Mehenil/posts/pfbid07rchDjS1sQagvLzbuyvu9nfZfvhy6U1Rx1x1v8jE6d283cMptPQkBZ9MooLKb8UNl?comment_id=1532678067639585&amp;__cft__[0]=AZVkm55KViaGLWlxFx5YawDybP74JFwl7Bf3uBRkCaabEtYZil-tWQo8XEJ0al3tXC9HOFzVU7xxU-bS9GydG4ypG-K4a-CTlnGFtP_aubhDNX4DGBOLq6XYbSZ-OiZ9RU4e8ToS12GJDbM7dnkb0byI1keU4b4b3CnJwtTKASpsqxzGAsQUi7vc_adOQSLT3zwB5nbbym4jhjovEmNdlhIT&amp;__tn__=R]-R</t>
   </si>
   <si>
     <t xml:space="preserve">· 
 (During the flood) Helicopter Visits 0
 স্বজন হারানোর বেদনা 0
 কান্নাকাটি নাকে রুমাল 0
-ত্রান তহবিল 1000 crore… See more
-See Translation</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Mehenil/posts/pfbid02675gxgLGmB6SispbPCSNZzytkbFdYSuheXcUXeXtBeK7yJevMMYsNtGReFWKzNtl?comment_id=1002354081361166&amp;__cft__[0]=AZVqACHOAObvwa-QA-lU3S6DPWtvG6ZoRBixZ1retkgRROeRsur_C7LgmN4LaiS-Keb4P1KkjvSCeSZC39dxKq2C033KtWaiUoxQ2w-2UywkOe226M32Gz_36kdQbhERUOUmFRt9z1MrZ-Tf7jz4pTMKkmuvgHYtbmLJYTMxl4S6AYYMJZzPtW4i-05cR6JzDLjD63hl1JPukMafRCxT_oxT&amp;__tn__=R]-R</t>
+ত্রান তহবিল 1000 crore
+৮৪ বছর বয়সেও কোনো প্রকার স্ক্রিপ্ট হাতে নেওয়া ছাড়া ২৫ মিনিট জাতির উদ্দেশ্যে ভাষণ দিয়েছেন ড. ইউনুস! দীর্ঘ ২৫ মিনিটে উনি নিজের সম্পর্কে ১ মিনিটও বলেনাই। 
+পুরোটা সময় দেশ ও দেশের মানুষ নিয়েই কথা বলেছেন। গত ১৫ বছর এমন ভাষণই শুনতে চেয়েছিলাম আমরা, এমন একজন নেতাই চেয়েছিল সাধারণ মানুষ, কিন্তু স্বজন হারানর বেদনা ছাড়া আর কিছুই শুনিনি! 
+টানা ২৫ মিনিট উনার ভাষণ খুব মনোযোগ দিয়ে শুনলাম, বিশ্বাস করেন একবারের জন্যও বিরক্ত লাগেনি! এমন মানুষ দিয়ে যদি আরও আগে দেশটা পরিচালনা করা যেত, আজ বাংলাদেশের মানুষ যে কতো সুখে শান্তিতে থাকতো! আফসোস!
+কম কথা বেশি কাজ। ১০০০ কোটি টাকার ফান্ডিং নিয়ে চলে আসছে শুধু এনজিও দের মাধ্যমে। এখন বন্যার পর পূনর্বাসন হবে। কোনো শোডাউন নাই, মিডিয়ার সামনে কান্নাকাটি নাই। বাপের স্বপ্ন নাই। স্বজন হারানোর বেদনা নাই। তাকে কিভাবে হয়রানি করা হয়েছিলো, সেই গপ্প নাই। আমি সত্যই অপেক্ষা করতেসি কখন বড় বড় আন্তর্জাতিক প্রতিষ্ঠান গুলো বাংলাদেশে বিনিয়োগ এবং সাহায্যের ঘোষনা দেয়। World bank এবং IMF সহজ শর্তে লোন স্যাংশন করা সময়ের ব্যাপার মাত্র। এই মুহূর্তে সবচেয়ে বড় কাজ অর্থনীতি পূনর্গঠন করা।
+See Translation</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Mehenil/posts/pfbid02675gxgLGmB6SispbPCSNZzytkbFdYSuheXcUXeXtBeK7yJevMMYsNtGReFWKzNtl?comment_id=1002354081361166&amp;__cft__[0]=AZWxFWp2C-AQNTjd-ThgSMMgpgoCzeuVCk9ubRYSrsvvV3ijfew6jubVCGhecUozSzhxA-o3VDu0ML1T_T3c_Wb5PItEchskJ2yAAbCrmdNCQHwXqgAYtov2gqeccY-wxNtnGMIYIy_GAJ84k7K2mEFS5dDeTVcn5ZLRkidoeeRMxQ_LhUM12LcFg8I9SHNVgn3qbt24apg5csjZu_4eRCDA&amp;__tn__=R]-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">· 
+আনসারের মতো সর্বশেষ এমন বেইজ্জতি হইতে দেখেছিলাম ২০১৪ সালে ব্রাজিলকে
+See Translation</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Mehenil/posts/pfbid02s5yDZZVWscgktQDKckFxi8EPNPFYGvzc3KYXviBcudgd6YkXowh3J21xkuqXbhkHl?comment_id=1619752085609416&amp;__cft__[0]=AZWVAtbPd0Tx_KGB3Px3rP55pJUEKBwjD0JmwrhG1M2fZOxxAuHG8QKm4z3j6T-Wb-n0zXQmJmWvKmy4QoBtiuSY0EdhMrTe0aAk24FVGvZ907brtrIxAidkzqy2IwnZFh4JKCn-fG1Ew1AWiEWd_qqlRoMyWeFvRnrjijz1diCKOz8684l2ADIcV_4pV0irtqCie4NaxVzGda4GEnGclp9d&amp;__tn__=R]-R</t>
   </si>
 </sst>
 </file>

--- a/facebook_posts.xlsx
+++ b/facebook_posts.xlsx
@@ -25,7 +25,7 @@
 See Translation</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Mehenil/posts/pfbid021sDb3pimHyXp7WoGpcgJjsepRNgW2pkfSjYHyDE6aaQ1vNvfFXtV2bwadyVCFGMRl?comment_id=1118738286489974&amp;__cft__[0]=AZUCUiFW6ynN4gYMmVqEW26eLiLe7ACSGtf34EGzXiYV8rWat_1J2EnF23mxjRc9F59WrwFL3kjAolx8iqbp8tD48pG_ciXvS4OUxbCROKP77vtf7rcf3gEJQUNm6QlhPaO0_FmZn0g96xJjLD8XKylMZ0wLx9Tnn0DfyFqc6NIYmtoZda7XkxW8YFu7O17iSa7ODYWGgRRv3UVuPkDgk36P&amp;__tn__=R]-R</t>
+    <t>https://www.facebook.com/Mehenil/posts/pfbid021sDb3pimHyXp7WoGpcgJjsepRNgW2pkfSjYHyDE6aaQ1vNvfFXtV2bwadyVCFGMRl?comment_id=1118738286489974&amp;__cft__[0]=AZV8ZUwXLH1XXqA03RSCVUjKI5J50Heho84VcawA2uGbOzzYvv-xe6tlpC7eyGQhD5Iko1VLVWu9qMGHp--YhaF9D7dBl-d4VZIrEY8O-o3op4g4BERybVic48ww1bdIkCXgxasdPBfI0QAghBLLL3QqtUU8jNWldvVZiONQgOKFx118plXPLsq36XgLTotaf-04QyO9WqtOMX6zVTSe7FHn&amp;__tn__=R]-R</t>
   </si>
   <si>
     <t xml:space="preserve">· 
@@ -37,7 +37,7 @@
 See Translation</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Mehenil/posts/pfbid02g5du4y4pZ4rHz6P7WvueHBjd34hQWP91PZioZFhfZLM3GmVCAYzmpiaLNzEPqDeJl?comment_id=1195764824875743&amp;__cft__[0]=AZVK-eGOpsfRuWXl6guR4RkdyACUrhnMo0S7WVp8pKfKTHm6iGRo6cF_o1ObVznJFnAp4uD0C5YbrL1VUut1gPSdOkL091wnF3UVgWoQsZkuSDRI1cl5BRjFCtM2OwBUms-RDW7umpY6S_rGPDHQXhsF8T_-cU0z-iQHKBZ7kfb7T3ijO6bfMvk_G5fXujIxgRROgEMNIMtRpsGh5OY5z4G_&amp;__tn__=R]-R</t>
+    <t>https://www.facebook.com/Mehenil/posts/pfbid02g5du4y4pZ4rHz6P7WvueHBjd34hQWP91PZioZFhfZLM3GmVCAYzmpiaLNzEPqDeJl?comment_id=1195764824875743&amp;__cft__[0]=AZXPRY2IuX_7PxOTV7-VQFr6k2YbUkR8e3oCCN2pArge6M_4P73pcfX9XV9Hdu20s2XUXTfNQE8xrUhJMYI6kqYXcE8YqGsgwLlTFZgQ3bb8lLD1tEoCgUiVKQf9b8xXc4GTz4ehgJbwmNV-KZIP4i001fkVZ3VoZIrP3P9wOy0BV1IVrWC67F-M7-iVu7y_vFB6W6m6WtG0AygG2eFiTCDA&amp;__tn__=R]-R</t>
   </si>
   <si>
     <t xml:space="preserve">· 
@@ -57,7 +57,7 @@
 See Translation</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Mehenil/posts/pfbid033HTAqD8tveyBBZPVwdyc3T6YDLeEJygqX4gevfmVm2NGw7GKpmZcFgmn73WRvcFNl?comment_id=862872849279294&amp;__cft__[0]=AZVUuFUmxuqGHwhbgdw9I8PUiwgjZjGOq0iu4q6P2u2tHPlv1PDIKnDrdqa-WNn2ol688ib-aVFaPn2WYWtJnRXBggIGm5OEK9m8dLHfyVGTzgUh06TQRoEAzdCl8R4YOH4JLpiNrFSW2ZALt1PS9pV5LQf1tr3SwVESrNzmLHDQYjHUhUj8qWzSEvz-5whd-1H-r8nylCsAsd1h8-jesm3y&amp;__tn__=R]-R</t>
+    <t>https://www.facebook.com/Mehenil/posts/pfbid033HTAqD8tveyBBZPVwdyc3T6YDLeEJygqX4gevfmVm2NGw7GKpmZcFgmn73WRvcFNl?comment_id=862872849279294&amp;__cft__[0]=AZWCa8XtyctbjbHIw3Y-gc9MPBrnd_9N_0a1gcz_q9O0UIKeu0Fix4DvVrOZ1-d2meI6v3Wi5bPc-sJPf-QIhs3tnaurH3RvQe-DA0zW91vZ5bt1D1nxy7NfRMbsrL-JYM2j0cDzJec_OVQIJIGC9Syp5O5rpbbSxSDyrbLIxcrjzL7YapnQ-aHwVOvG9GNq4To2Kbw74wJ-gOYyuNLZiXQ3&amp;__tn__=R]-R</t>
   </si>
   <si>
     <t xml:space="preserve">· 
@@ -66,7 +66,25 @@
 See Translation</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Mehenil/posts/pfbid02CdMSLqPf5svoHY3vzYmf5n2qmyP7H2Uou6kaFVsGFpQHGQ4CMEMSQTruFceAGjj7l?comment_id=1580622532665552&amp;__cft__[0]=AZWYS_Z3ud7xGwvaaUAKZm9j0LAtOF21bv15x3KXdn7WO2Oo1zFp2gAOEDWPUAaXSdq6hNuP64D4Wy9K9X0i32_T1PVr3L5eeVIZPa6-iDPHEprsNS3XMFk1SP_jMxooO6e4OEEgY5aAF0-A4vamRTLJ6mAPJSNZmB95QA2HaYGIIxd9tKOYdaF0N9yK9pPYZVtiQIbwxSxhWbCaHrCm6yPk&amp;__tn__=R]-R</t>
+    <t>https://www.facebook.com/Mehenil/posts/pfbid02CdMSLqPf5svoHY3vzYmf5n2qmyP7H2Uou6kaFVsGFpQHGQ4CMEMSQTruFceAGjj7l?comment_id=1580622532665552&amp;__cft__[0]=AZUhfDe7R--8oV4OejBiZ7MF6DerFH08q0KX8zkMYRqP8FHxnQmHjuFzHQUQf4awz8bTswjEVqOqrrzp8DwpRdlq1gqIxa-xc7XhbmzcWv-xr6HJwKUVnqo4zYrbTHHGDYZuY5pYHosChSDBjG_ozp0triWuyjbxaTMHCLt0V20ZZ_ORkvjgFNQcjkWynkUVg2gtxaMw2u_4QuOOEVfvfkd0&amp;__tn__=R]-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">· 
+একটা মহিলা ৪ টা বিয়ে করসে! একটা করে বিয়ে করে কাবিনের টাকা নেয় স্বামীর অর্ধেক সম্পত্তি নেয় তারপর তালাক দিয়ে আরেকটা বিয়ে করে। আবার সেম কাহিনী করে পরের বিয়েতে যায়, এভাবেই কাবিন ব্যবসা করে।
+এক লোক ভালোবেসে এক বাচ্চা সহ তাকে বিয়ে করে ধর্মীয় পথে আনার চেষ্টা করলো। তাকে ভালো করার চেষ্টা করলো। ২ বছর সংসার করার পর ওই বেডি আবার পরোকিয়া করলো। স্বামী মাফ করে সুযোগ দিলো। এরপর আবার পরকিয়া করলো, বাচ্চাকে শিখায় দিলো পরোকিয়া প্রেমিককে বাপ ডাকতে।
+চার নাম্বার স্বামীর টাকা পয়সা নিয়ে পাচ নাম্বার বিয়ে করবে বলে বেডি ঝামেলা শুরু করছে। এরপর চার নাম্বার ব্যাডায় বেডিরে মারলো। সিম্প্যাথি পাওয়ার জন্য বেডি সেই মাইর খাওয়া চেহারার ছবি তুলে পোস্ট দিয়ে সোশ্যাল মিডিয়ায় স্বামীর বিরুদ্ধে জনমত দাঁড় করেছে।
+আর ওমনি পুরা দেশের জনগনের গায়ে লাইগা গেসে, একটা কাবিন ব্যবসায়ী মাগিরে এমনে মারলো ক্যান? কই স্বামীর লিঙ্গ কর্তন কইরা, অন্ডকোষ কাইটা যখন কোনো বেডি পরকিয়া প্রেমিকের কাছে চইলা যায় তখন তো আপনাদের দরদ দেখিনা। তখন এতো সিম্পেথি কই যায়?
+এমন হিপোক্রেট জাতি আর দেখি নাই। ছেলের নির্যাতনের বেলায় হাহা রিয়েক্ট "ঠিক হইসে একদম, এমনই হওয়া উচিৎ" আর মেয়েদের বেলায় দরদ উতলায় পড়ে। আমি এমন হিপোক্রেট না ভাই। খারাপ কে খারাপ বলতে জানি সেটা যেই জেন্ডারই হোক না কেন।
+ওই বেডির হাজবেন্ড যিনি মারধর করেছিল তিনি লাইভে এসে সবকিছু খোলাসা করেছেন। দীর্ঘ ৩৮ মিনিট দৈর্ঘ্যের লাইভ দেখে যা বুঝলাম। 
+প্রথমত: বেডিরে মারধর করার কারণ ছিল তার স্ত্রী পরকিয়া করা অবস্থায় হাতেনাতে ধরা খেয়েছিল এবং সেটার জেরেই রাগ নিয়ন্ত্রণ করতে না পেরে স্ত্রীর সাথে হাতাহাতি চলে, একপর্যায়ে ধাক্কা খেয়ে পড়ে গিয়ে নাক ফেটে যায় তারই প্রেক্ষিতে প্রচন্ড ব্লিডিং হয়। এইটার জন্য তার স্বামী অনুতপ্ত এবং সে শাস্তিস্বরূপ জেল খেটে মুক্তি পেয়েছে। 
+দ্বিতীয়ত: তার স্ত্রী পূর্বেও তিন বিয়ে করেছে এসবের দুই বিয়ের কথা সম্পূর্ণ গোপন করেছে এবং তৃতীয় স্বামীর সাথে পরপর দুইবার ডিভোর্স দিয়ে (প্রথম ডিভোর্সের পর আবার পারিবারিকভাবে ঐ একই স্বামীর সাথে বিয়ে বসার কয়েক মাস পর আবার ডিভোর্স দেয়) তারপর এই স্বামীর সংসারে আসে। এই স্বামীর পূর্বে দুই বিয়ে হয়েছে। এই সম্পর্কে সম্পূর্ণ অবগত ছিল মহিলা, সব জেনেই বিয়ে করেছে। 
+মজার ব্যাপার হলো এই মহিলার কোলে চতুর্থ স্বামীর সন্তান আসার পরপরই স্বামীকে তার পূর্বের দুই স্ত্রীকে ডিভোর্স দেওয়ার জন্য ফোর্স করতে থাকে পাশাপাশি এই মহিলা তার চতুর্থ স্বামীর সন্তানকে স্বামীর কাছ থেকে প্রায় দশ মাসের মত বিচ্ছিন্ন করে রেখেছে এবং তার চতুর্থ স্বামী সন্তানের সাথে দেখা করতে গেলে সেটাকে হত্যার চেষ্টা চালাচ্ছে প্রচার করে সিম্প্যাথি কুড়ানোর চেষ্টা করে যাচ্ছে। 
+তৃতীয়ত: এই মহিলা প্রথম দুই স্বামীকে ডিভোর্স দিয়ে ৬০-৮০ লক্ষ টাকার মত হাতিয়ে নেওয়ার পাশাপাশি চতুর্থ স্বামীর কাছ থেকে মিনিমাম ২৫ ভরি স্বর্ণ হাতিয়ে নেয় এবং ঘর থেকে ফার্নিচার চুরি করে চলে যায়। ইভেন এই মহিলা এখনও চাচ্ছে চতুর্থ স্বামীর সাথে মোটা অংকের বিনিময়ে আপোষ করতে যার ফলস্বরূপ মারধরের ছয় মাসের ভেতর কোনো স্ট্রং লিগ্যাল স্টেপ না নিয়ে বরঞ্চ সোশ্যাল মিডিয়ায় পোস্ট করে তার চতুর্থ স্বামীর বিরুদ্ধে জনমত দাঁড় করিয়েছে!
+আর আপনারা সেই কাবীন ব্যাবসায়ীকে সাপোর্ট করছেন
+See Translation</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Mehenil/posts/pfbid02wpxhTsv2WYt1aoLVhe5yz89gDc5VCKAswJVExMTvAGtT1oLYPcfQDypGii6PCJiml?comment_id=1185907325958547&amp;__cft__[0]=AZWse-sd8FS8DGR_jRdPKDN3BQShL5knBvzy-BLbsO2ZJFD8nTKs5afXYfIHqBW4M3OyYhYxj1KRLFvxz5knQv2sZTngsRQVZU4dSmuzn1wO7ViwH8rk-3x61bLiVkw9oQvMS6ZR9YuEXvVydV9s7Iin-b_--Ys94Si67sOlInzyLy5ZKMRxAHcMEOLls6mTI7s1xO4ghjWOMjp0erhqQ_DP&amp;__tn__=R]-R</t>
   </si>
   <si>
     <t xml:space="preserve">· 
@@ -80,7 +98,7 @@
 See Translation</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Mehenil/posts/pfbid029pCAS3pN6v8ku5BbA5tFiYbUTxwYQivv2vKFZQUNruB64s8n3Mzy7jLnHpB8U4DWl?comment_id=1155085332248813&amp;__cft__[0]=AZVQps61Riz09YY-zlEvKTM1A4ePjwIcXkpQxFGBE4u-M1wG-S95zSq9RFGquXdFHiYL31f5YhDTzy-9n_k-qdTDUBCovzeXfPriPYz94_X2DvLFP6-fjfavzB-1CCmiIQc14ImBE2vIIjHfk3hTygpURIJOgj-YDiFkmmKK2v44wWIMcRrYphALZPLMqHr6zPUV379LJurHoFAvbwR8ILNF&amp;__tn__=R]-R</t>
+    <t>https://www.facebook.com/Mehenil/posts/pfbid029pCAS3pN6v8ku5BbA5tFiYbUTxwYQivv2vKFZQUNruB64s8n3Mzy7jLnHpB8U4DWl?comment_id=1155085332248813&amp;__cft__[0]=AZUeylOUQHWu3WmWchpgFZ2pNlWd4ROJ4Y1IiqIhbD1lCmT8sy9jOBQ1lBgX4sLK7oarob_OdLxYcCxIZsr_YLti8BfGVqGAFj9504WEUJQ0spqogAz8eZAegJ63e8J1T_KQWOHQRfzGaYr1akQnUH1Emh1OrcE7BDLPMOHmE-WntZv5O-MrLSK5w-UjMDPyOtam_xshdppryhT7QDDEIfoQ&amp;__tn__=R]-R</t>
   </si>
   <si>
     <t xml:space="preserve">· 
@@ -90,7 +108,7 @@
 See Translation</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Mehenil/posts/pfbid02jveJkpEcHUNXdvCYqHcLjq5D9rRpirY7cK8fUarvEn1zcy8n8Kz97VLjXatjHpTrl?comment_id=793957172649114&amp;__cft__[0]=AZU0kRzjZiN4tRr62fxo3c5PmxOUl2LQ_zyBcic0nmjqY8CMW8pk8QOpqEACm9MtdHWzuPH77ApuB0RGkodfrqiKHc0IVDSSkxph0m8ny37iL3AGBROTxxXBWyzUiSD4utBj00kvxNm2SIcO7W09H8ueZvnvDYjb0imYEwkjKyFLYDFlqKzK4M2btX1rRs39D-DNhi3Y9z_RFQ3FZxZr9_gr&amp;__tn__=R]-R</t>
+    <t>https://www.facebook.com/Mehenil/posts/pfbid02jveJkpEcHUNXdvCYqHcLjq5D9rRpirY7cK8fUarvEn1zcy8n8Kz97VLjXatjHpTrl?comment_id=793957172649114&amp;__cft__[0]=AZWTVUmlocrIxxUb0NYcbHlXS6FYO8LYnIHktPYvW3Zha1Y3uo8A69cUf8R45m_lrVEc1sxAYh6PSbc-zMggxmHAmIV_9tijtCszgLSqV4-6H1QXv8E7sOgAcH1cUGvq9LRhc1yY-yW2qqpMDSa8njjbEQ_pNMEk7YZhkREc_roMDESwUi2CWhpzX0abWrs1bhmtqy07PtFJfm-621R8EjhS&amp;__tn__=R]-R</t>
   </si>
   <si>
     <t xml:space="preserve">· 
@@ -99,7 +117,7 @@
 See Translation</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Mehenil/posts/pfbid0rjDks3MQ5QTm33U7sMpAGeVhNMDnY1TWz12w13WajZvesYRumuXcpqvqbDyXKDGDl?comment_id=1224646141904887&amp;__cft__[0]=AZWur04ZgvgX3pLG1sLgDb-2zzqKKIbHW3xN6oYQC6ceYWlSLf3BCccTnOv-WuIplLgsmLyEdh6ZcfqdA1F-b7m80z89CCDnmXLSnUBYiFFUsUcPFkUAbl9z8iMtsoSvPM95svpm2KgT3W9MFGJWXQEGbSr_8qk3YeCIb1txiJTQaf5XxEwSK08NJEeC6ggLkdFlQX3gjZiyhGL4UyHGpOQQ&amp;__tn__=R]-R</t>
+    <t>https://www.facebook.com/Mehenil/posts/pfbid02vafU3iHDvrddgXVW97Xv8XT1k5tYJELthrk9wxmr6KjF3WWc9sbQaL5PCQrgErrtl?comment_id=1224646141904887&amp;__cft__[0]=AZU8Ed0sV_fkmf9QPR2k7qGFnVSIFkyoCOgQA7vSpyJtQzVWmAMmgcljpkou9IME_4J7njP9ZYGtmrpUFOcBs4IJCrlRyG5Zl3THKUbJCqVYOgu4aJtw7fxsOaYdcFOEnhHTJSoxX48uCjjMCI24boSfnM1-saHzBPdnT6yJ6MV0wECG7-qeEpL49fa3mP_NqMF3vjY2GRL_lQf8sGZ6U8qf&amp;__tn__=R]-R</t>
   </si>
   <si>
     <t xml:space="preserve">· 
@@ -108,7 +126,7 @@
 +3</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Mehenil/posts/pfbid07rchDjS1sQagvLzbuyvu9nfZfvhy6U1Rx1x1v8jE6d283cMptPQkBZ9MooLKb8UNl?comment_id=1532678067639585&amp;__cft__[0]=AZVkm55KViaGLWlxFx5YawDybP74JFwl7Bf3uBRkCaabEtYZil-tWQo8XEJ0al3tXC9HOFzVU7xxU-bS9GydG4ypG-K4a-CTlnGFtP_aubhDNX4DGBOLq6XYbSZ-OiZ9RU4e8ToS12GJDbM7dnkb0byI1keU4b4b3CnJwtTKASpsqxzGAsQUi7vc_adOQSLT3zwB5nbbym4jhjovEmNdlhIT&amp;__tn__=R]-R</t>
+    <t>https://www.facebook.com/Mehenil/posts/pfbid07rchDjS1sQagvLzbuyvu9nfZfvhy6U1Rx1x1v8jE6d283cMptPQkBZ9MooLKb8UNl?comment_id=1532678067639585&amp;__cft__[0]=AZXNDOEUI_iL-thj3znjVhEovXexRhYz9OLDHpHM8agK5ENDgElvY7JCBM0W3xfbaPvSIrYyWIt180wNdZlPH8bLEVLkmr7bnoWiVTccXxWCmvK-ySIKsUojwjYrzJeVy6K8I_z02xHKVjBQtdddsj6aIZsMN-iUZnerC81EE0HdK4Koxib4WfVq-WmAM7tB-r-q5wl7nxkuTGSfS4TKQSWg&amp;__tn__=R]-R</t>
   </si>
   <si>
     <t xml:space="preserve">· 
@@ -123,15 +141,7 @@
 See Translation</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Mehenil/posts/pfbid02675gxgLGmB6SispbPCSNZzytkbFdYSuheXcUXeXtBeK7yJevMMYsNtGReFWKzNtl?comment_id=1002354081361166&amp;__cft__[0]=AZWxFWp2C-AQNTjd-ThgSMMgpgoCzeuVCk9ubRYSrsvvV3ijfew6jubVCGhecUozSzhxA-o3VDu0ML1T_T3c_Wb5PItEchskJ2yAAbCrmdNCQHwXqgAYtov2gqeccY-wxNtnGMIYIy_GAJ84k7K2mEFS5dDeTVcn5ZLRkidoeeRMxQ_LhUM12LcFg8I9SHNVgn3qbt24apg5csjZu_4eRCDA&amp;__tn__=R]-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">· 
-আনসারের মতো সর্বশেষ এমন বেইজ্জতি হইতে দেখেছিলাম ২০১৪ সালে ব্রাজিলকে
-See Translation</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Mehenil/posts/pfbid02s5yDZZVWscgktQDKckFxi8EPNPFYGvzc3KYXviBcudgd6YkXowh3J21xkuqXbhkHl?comment_id=1619752085609416&amp;__cft__[0]=AZWVAtbPd0Tx_KGB3Px3rP55pJUEKBwjD0JmwrhG1M2fZOxxAuHG8QKm4z3j6T-Wb-n0zXQmJmWvKmy4QoBtiuSY0EdhMrTe0aAk24FVGvZ907brtrIxAidkzqy2IwnZFh4JKCn-fG1Ew1AWiEWd_qqlRoMyWeFvRnrjijz1diCKOz8684l2ADIcV_4pV0irtqCie4NaxVzGda4GEnGclp9d&amp;__tn__=R]-R</t>
+    <t>https://www.facebook.com/Mehenil/posts/pfbid02675gxgLGmB6SispbPCSNZzytkbFdYSuheXcUXeXtBeK7yJevMMYsNtGReFWKzNtl?comment_id=1002354081361166&amp;__cft__[0]=AZVHAm6IHgC40oJAG52rrXhGSanceyDRr7QfaqhwyDLZiICuW0PTtL8D_I-PGbtmMKI3iV_Gy_nOhjeOmdR_2fG_HdBhvydL9FHAgxirw1u_gHPEVnWY0KIDAmYaxIGr7h0_H2zdBvy90VqSUwCjBB396hVvUEkEjJfdNbkObH0nLkgg8Sn9oEnWpWcyeTyEpO-OH5doRoUwxewyFD9gptBK&amp;__tn__=R]-R</t>
   </si>
 </sst>
 </file>
